--- a/数据整理/stocks/其他/KYG596691041-美团.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1129,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.33</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG596691041-美团.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,623 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>968029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生指数基金M类人民币（对冲）份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2386</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>968061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根太平洋科技基金(PRC) (acc) - RMBH</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>101.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5432</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>968063</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>摩根太平洋科技基金(PRC) (acc) - USD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>101.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5432</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>968072</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩根亚洲增长基金 acc RMB Hedged</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3076</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>968074</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>摩根亚洲增长基金 acc USD</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3076</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2842</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2842</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009562</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2842</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1352</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002379</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002380</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信香港中小盘股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005699</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005700</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信新经济灵活配置混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1476,64 +918,622 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>968061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根太平洋科技基金(PRC) (acc) - RMBH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>101.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>968063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根太平洋科技基金(PRC) (acc) - USD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>101.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>968072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根亚洲增长基金 acc RMB Hedged</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>968074</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根亚洲增长基金 acc USD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.33</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005699</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>